--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H2">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I2">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J2">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>15072.82051749009</v>
+        <v>5575.606288115911</v>
       </c>
       <c r="R2">
-        <v>135655.3846574108</v>
+        <v>50180.4565930432</v>
       </c>
       <c r="S2">
-        <v>0.09154923648069878</v>
+        <v>0.0447619700053872</v>
       </c>
       <c r="T2">
-        <v>0.09154923648069878</v>
+        <v>0.0447619700053872</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H3">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I3">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J3">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>14242.38338162272</v>
+        <v>9710.878214939588</v>
       </c>
       <c r="R3">
-        <v>128181.4504346045</v>
+        <v>87397.90393445631</v>
       </c>
       <c r="S3">
-        <v>0.08650533075345564</v>
+        <v>0.07796067672668809</v>
       </c>
       <c r="T3">
-        <v>0.08650533075345565</v>
+        <v>0.07796067672668809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H4">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I4">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J4">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>16704.27766383641</v>
+        <v>11996.59224154768</v>
       </c>
       <c r="R4">
-        <v>150338.4989745277</v>
+        <v>107969.3301739292</v>
       </c>
       <c r="S4">
-        <v>0.1014583743176201</v>
+        <v>0.09631079999812475</v>
       </c>
       <c r="T4">
-        <v>0.1014583743176201</v>
+        <v>0.09631079999812475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H5">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I5">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J5">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>31102.62665348885</v>
+        <v>16874.02946766467</v>
       </c>
       <c r="R5">
-        <v>279923.6398813996</v>
+        <v>151866.2652089821</v>
       </c>
       <c r="S5">
-        <v>0.1889110083522234</v>
+        <v>0.1354677432141392</v>
       </c>
       <c r="T5">
-        <v>0.1889110083522234</v>
+        <v>0.1354677432141392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H6">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I6">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J6">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
-        <v>29389.02725342273</v>
+        <v>29389.02725342272</v>
       </c>
       <c r="R6">
         <v>264501.2452808045</v>
       </c>
       <c r="S6">
-        <v>0.1785029552258826</v>
+        <v>0.2359403961519218</v>
       </c>
       <c r="T6">
-        <v>0.1785029552258826</v>
+        <v>0.2359403961519219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H7">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I7">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J7">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>34469.12348565742</v>
+        <v>36306.51816770186</v>
       </c>
       <c r="R7">
-        <v>310222.1113709167</v>
+        <v>326758.6635093167</v>
       </c>
       <c r="S7">
-        <v>0.209358423236657</v>
+        <v>0.2914752572624494</v>
       </c>
       <c r="T7">
-        <v>0.209358423236657</v>
+        <v>0.2914752572624494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H8">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I8">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J8">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>7749.857445723888</v>
+        <v>3005.86600137253</v>
       </c>
       <c r="R8">
-        <v>69748.71701151499</v>
+        <v>27052.79401235277</v>
       </c>
       <c r="S8">
-        <v>0.04707105290393416</v>
+        <v>0.02413163283792703</v>
       </c>
       <c r="T8">
-        <v>0.04707105290393416</v>
+        <v>0.02413163283792703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H9">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I9">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J9">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>7322.879003756808</v>
+        <v>5235.233113925575</v>
       </c>
       <c r="R9">
-        <v>65905.91103381127</v>
+        <v>47117.09802533017</v>
       </c>
       <c r="S9">
-        <v>0.04447767296482812</v>
+        <v>0.04202939294982636</v>
       </c>
       <c r="T9">
-        <v>0.04447767296482813</v>
+        <v>0.04202939294982636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H10">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I10">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J10">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>8588.689189147104</v>
+        <v>6467.484769872976</v>
       </c>
       <c r="R10">
-        <v>77298.20270232394</v>
+        <v>58207.36292885679</v>
       </c>
       <c r="S10">
-        <v>0.05216594576470023</v>
+        <v>0.05192213085353604</v>
       </c>
       <c r="T10">
-        <v>0.05216594576470024</v>
+        <v>0.05192213085353604</v>
       </c>
     </row>
   </sheetData>
